--- a/Doctor-Patient online appointment booking system/uploads/errors_output.xlsx
+++ b/Doctor-Patient online appointment booking system/uploads/errors_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>S_NO</t>
   </si>
@@ -40,84 +40,104 @@
     <t>Rishab</t>
   </si>
   <si>
+    <t>Harshini2003</t>
+  </si>
+  <si>
+    <t>Amsalakshmi S</t>
+  </si>
+  <si>
+    <t>Saminathan M R</t>
+  </si>
+  <si>
+    <t>Kavish S</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
     <t>rishab@gmail.com</t>
   </si>
   <si>
+    <t>harshinigmail.com</t>
+  </si>
+  <si>
+    <t>amsu1968@gmail.com</t>
+  </si>
+  <si>
+    <t>skavish2003@gmail.com</t>
+  </si>
+  <si>
+    <t>demo@</t>
+  </si>
+  <si>
+    <t>948886aaaa</t>
+  </si>
+  <si>
+    <t>9796873212##+</t>
+  </si>
+  <si>
     <t>121,Orukutty village,The Nilgiris - 620789</t>
   </si>
   <si>
+    <t>109,Emulathur,Mettuplayam,Erode -638104</t>
+  </si>
+  <si>
+    <t>110,Emulathur,Mettuplayam,Erode -638104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110,Emulathur,Mettuplayam,Erode </t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
     <t>Anesthesiology</t>
   </si>
   <si>
+    <t>Dermatology</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>Anesthesiology@gmail</t>
+  </si>
+  <si>
     <t>Invalid address format.</t>
   </si>
   <si>
-    <t>Harshini2003</t>
-  </si>
-  <si>
-    <t>harshinigmail.com</t>
-  </si>
-  <si>
-    <t>Dermatology</t>
-  </si>
-  <si>
     <t>Doctor name should not contain numbers or special characters.Invalid email format.Invalid address format.</t>
   </si>
   <si>
-    <t>Amsalakshmi S</t>
-  </si>
-  <si>
-    <t>amsu1968@gmail.com</t>
-  </si>
-  <si>
-    <t>948886aaaa</t>
-  </si>
-  <si>
-    <t>109,Emulathur,Mettuplayam,Erode -638104</t>
-  </si>
-  <si>
     <t>Invalid phone number format.Specialization should contain alphabets only.</t>
   </si>
   <si>
-    <t>Saminathan M R</t>
-  </si>
-  <si>
-    <t>110,Emulathur,Mettuplayam,Erode -638104</t>
-  </si>
-  <si>
-    <t>Pediatrics</t>
-  </si>
-  <si>
     <t>Invalid email format.</t>
   </si>
   <si>
-    <t>Kavish S</t>
-  </si>
-  <si>
-    <t>skavish2003@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110,Emulathur,Mettuplayam,Erode </t>
-  </si>
-  <si>
-    <t>Ophthalmology</t>
-  </si>
-  <si>
-    <t>9796873212##+</t>
-  </si>
-  <si>
-    <t>Anesthesiology@gmail</t>
-  </si>
-  <si>
     <t>Invalid phone number format.Invalid address format.Specialization should contain alphabets only.</t>
+  </si>
+  <si>
+    <t>Invalid email format.Invalid address format.Specialization should contain alphabets only.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,12 +161,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,32 +479,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -478,19 +516,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>9796873212</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -498,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>45678923</v>
@@ -510,10 +548,10 @@
         <v>675789</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -521,22 +559,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>98765</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -544,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>98765432</v>
@@ -556,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -567,22 +605,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>9443436607</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -593,19 +631,42 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>4567</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
